--- a/esportz/file.xlsx
+++ b/esportz/file.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,125 +442,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Team Name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Player 1 Name</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Player 1 email</t>
+          <t>Discord</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Player 1 contact</t>
+          <t>PSn</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Player 1 IGN</t>
+          <t>IGN</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Player 2 Name</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Player 2 email</t>
+          <t>webcam</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Player 2 contact</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Player 2 IGN</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Player 3 Name</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Player 3 email</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Player 3 contact</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Player 3 IGN</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Player 4 Name</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Player 4 email</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Player 4 contact</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Player 4 IGN</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Player 5 Name</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Player 5 email</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Player 5 contact</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Player 5 IGN</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Substitute 1 IGN</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Substitute 2 IGN</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
@@ -574,127 +494,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TPD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9911693131</t>
-        </is>
+          <t>Ajay Prakash</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Player1</t>
+          <t>85465465</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>player1@gmail.com</t>
+          <t>ajaystark#1234</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>p2@gmail.com</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3@gmail.com</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4@gmail.com</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>5@gmail.com</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>63335</t>
+          <t>85691</t>
         </is>
       </c>
     </row>
